--- a/biology/Zoologie/Eduard_Dallmann/Eduard_Dallmann.xlsx
+++ b/biology/Zoologie/Eduard_Dallmann/Eduard_Dallmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eduard Dallmann (11 mars 1830 à Blumenthal, près de Brême - 23 décembre 1896, ibid) était un chasseur de baleines et un explorateur allemand. On lui doit la découverte de différentes îles et terres antarctiques lors de son expédition de 1873-1874[1] à bord du Grönland ainsi que l'exploration de la côte nord de Nouvelle-Guinée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eduard Dallmann (11 mars 1830 à Blumenthal, près de Brême - 23 décembre 1896, ibid) était un chasseur de baleines et un explorateur allemand. On lui doit la découverte de différentes îles et terres antarctiques lors de son expédition de 1873-1874 à bord du Grönland ainsi que l'exploration de la côte nord de Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dallmann débuta à 15 ans comme jeune marin. En 1866, il devint capitaine du navire hawaiien W.C. Talbot, entreprenant des voyages de négoce au travers la mer de Béring et la mer des Tchouktches pour l'Alaska et la Tchoukotka. Il fut le premier Européen à poser le pied sur l'île Wrangel. De 1867 à 1870, il commanda le baleinier Comte Bismarck pour une chasse dans le Pacifique tropical, la mer d'Okhotsk, la mer de Béring et la mer des Tchouktches.
 En 1872-1874, quand les baleines commencèrent à se faire rare dans les eaux arctiques, Dallmann fut choisi pour explorer les mers antarctiques à bord du vapeur Grönland. L'opération fut moyennement un succès du point de vue de la chasse à la baleine, cependant Dallmann fit d'importantes découvertes au tour de l'Antarctique lors de cette expédition, principalement le détroit de Bismarck (de) et la cartographie des îles Anvers, Brabant, Liège et du Wikhelm. Le 1er mars 1874, il érige à l'anse Potter dans l'île du Roi-George, une plaque métallique commémorant son passage : la réplique de cette plaque est classée comme monument historique de l'Antarctique.
@@ -547,7 +561,9 @@
           <t>Nommés d'après lui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mont Dallmann, dans la chaine de Shcherbakov en Antarctique
 La station internationale Dallmann sur l'île du Roi-George, en Antarctique, nommée par l'institut Alfred Wegener
